--- a/data/trans_orig/P39A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P39A-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>36507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26247</v>
+        <v>26136</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52521</v>
+        <v>51569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09752392153393875</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07011701699963598</v>
+        <v>0.06981815781010688</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1403042251138102</v>
+        <v>0.1377603087164652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -764,19 +764,19 @@
         <v>21375</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13675</v>
+        <v>13385</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31398</v>
+        <v>32184</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0760588671143496</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04866095118608135</v>
+        <v>0.04762687230921776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1117245561715646</v>
+        <v>0.1145232825034602</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -785,19 +785,19 @@
         <v>57882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44467</v>
+        <v>44359</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>74821</v>
+        <v>74743</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08831944813937025</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06785047024258319</v>
+        <v>0.06768627781891563</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1141662969427604</v>
+        <v>0.1140483835345338</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>82363</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>66592</v>
+        <v>66926</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>100141</v>
+        <v>99839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2200239786209359</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1778923060914737</v>
+        <v>0.1787863187183775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2675153624153671</v>
+        <v>0.2667082475093141</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>63</v>
@@ -835,19 +835,19 @@
         <v>67649</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52982</v>
+        <v>52981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83548</v>
+        <v>83738</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.240718018383815</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1885289259367201</v>
+        <v>0.1885256643874194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2972944550422337</v>
+        <v>0.2979691271358482</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>140</v>
@@ -856,19 +856,19 @@
         <v>150012</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>129300</v>
+        <v>128159</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>174137</v>
+        <v>173352</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2288978316613332</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1972946301314945</v>
+        <v>0.1955539826756875</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2657092452822509</v>
+        <v>0.2645115838298756</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>85930</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>71961</v>
+        <v>70558</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105909</v>
+        <v>103330</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2295516307912189</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1922347309188479</v>
+        <v>0.1884874950762959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.282923347970388</v>
+        <v>0.2760349253979964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -906,19 +906,19 @@
         <v>71243</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57225</v>
+        <v>54499</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>88114</v>
+        <v>86523</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2535081801342088</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2036270898807159</v>
+        <v>0.1939256758186067</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3135403603752164</v>
+        <v>0.3078779957272508</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -927,19 +927,19 @@
         <v>157173</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134485</v>
+        <v>135266</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>180274</v>
+        <v>179107</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2398244871624556</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2052061888815807</v>
+        <v>0.2063973581047594</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2750742695827643</v>
+        <v>0.273292340872814</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>54393</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>40710</v>
+        <v>41641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>70434</v>
+        <v>71455</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1453043280258997</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1087531193530949</v>
+        <v>0.1112405357110357</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1881575259666589</v>
+        <v>0.1908839161863549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -977,19 +977,19 @@
         <v>29502</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20097</v>
+        <v>19455</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42167</v>
+        <v>41096</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1049787024833218</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07151166254402597</v>
+        <v>0.06922653177395906</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1500454607598111</v>
+        <v>0.1462357416734648</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>75</v>
@@ -998,19 +998,19 @@
         <v>83895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66524</v>
+        <v>65881</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103759</v>
+        <v>102705</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1280122149862397</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1015069945889745</v>
+        <v>0.1005250272399461</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1583214814606364</v>
+        <v>0.1567145040634503</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>115145</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>95880</v>
+        <v>96212</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>133062</v>
+        <v>133509</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3075961410280067</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2561317038656102</v>
+        <v>0.2570200852640936</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3554615227700169</v>
+        <v>0.3566553336994598</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1048,19 +1048,19 @@
         <v>91260</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>75037</v>
+        <v>75598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107950</v>
+        <v>109347</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3247362318843047</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.267007278003114</v>
+        <v>0.2690057972285211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3841237440949593</v>
+        <v>0.3890945343369082</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>186</v>
@@ -1069,19 +1069,19 @@
         <v>206405</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>180349</v>
+        <v>181977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>232623</v>
+        <v>233384</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3149460180506014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.275188561526197</v>
+        <v>0.2776718944882425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3549513074355353</v>
+        <v>0.3561117510733807</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>23860</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15102</v>
+        <v>14755</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37376</v>
+        <v>36446</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06487621855599893</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04106274327223414</v>
+        <v>0.04011940499389707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1016268150573509</v>
+        <v>0.09909648802909113</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1194,19 +1194,19 @@
         <v>29471</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19776</v>
+        <v>20054</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41803</v>
+        <v>40757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09702769215097469</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0651111616805857</v>
+        <v>0.06602623516597818</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1376293820171951</v>
+        <v>0.1341879710705579</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>48</v>
@@ -1215,19 +1215,19 @@
         <v>53331</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39983</v>
+        <v>39112</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>68754</v>
+        <v>69444</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07941871760514638</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05954242436727413</v>
+        <v>0.05824490043547167</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1023868948968923</v>
+        <v>0.1034141186181284</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>62461</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>48414</v>
+        <v>46902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79738</v>
+        <v>77705</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1698342452516071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1316401270170565</v>
+        <v>0.1275269993204411</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2168107020450267</v>
+        <v>0.2112825360982351</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>61</v>
@@ -1265,19 +1265,19 @@
         <v>66716</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51905</v>
+        <v>53135</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>82254</v>
+        <v>82016</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2196522289625832</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1708894157878111</v>
+        <v>0.1749413581463785</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2708112435396938</v>
+        <v>0.2700252631623645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>120</v>
@@ -1286,19 +1286,19 @@
         <v>129177</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>109122</v>
+        <v>109595</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>151242</v>
+        <v>151540</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.192367519771893</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1625012672113805</v>
+        <v>0.1632067482527173</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2252263510889304</v>
+        <v>0.2256694632131378</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>113034</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95038</v>
+        <v>95614</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133183</v>
+        <v>133595</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3073415178121587</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2584117610631586</v>
+        <v>0.2599761503311753</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3621274940202127</v>
+        <v>0.3632468512021574</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>76</v>
@@ -1336,19 +1336,19 @@
         <v>85475</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>69140</v>
+        <v>70030</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103961</v>
+        <v>101973</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2814152317493478</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.227632524615325</v>
+        <v>0.2305640217351153</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3422762069297149</v>
+        <v>0.3357340139317811</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>178</v>
@@ -1357,19 +1357,19 @@
         <v>198509</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>174103</v>
+        <v>175985</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>225402</v>
+        <v>226859</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2956147461199502</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2592696736976107</v>
+        <v>0.2620727092251938</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3356628422238326</v>
+        <v>0.3378336815205742</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>53345</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>40010</v>
+        <v>39870</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>69876</v>
+        <v>70880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1450463557493492</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1087882272397423</v>
+        <v>0.1084064695086935</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1899956413388639</v>
+        <v>0.1927255156206391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -1407,19 +1407,19 @@
         <v>36222</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>25520</v>
+        <v>24411</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49984</v>
+        <v>48365</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1192544859978307</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08402014379022869</v>
+        <v>0.08036870049056541</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1645649286061165</v>
+        <v>0.1592339528952102</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1428,19 +1428,19 @@
         <v>89567</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72025</v>
+        <v>72701</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>108844</v>
+        <v>110238</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1333803821749434</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1072586487212593</v>
+        <v>0.1082650813915674</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1620880510021262</v>
+        <v>0.164163523065828</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>115079</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>95958</v>
+        <v>96639</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135278</v>
+        <v>134036</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3129016626308861</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2609114927065952</v>
+        <v>0.2627648027891267</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3678253308522318</v>
+        <v>0.3644468891998506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -1478,19 +1478,19 @@
         <v>85850</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69877</v>
+        <v>70509</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>103835</v>
+        <v>102034</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2826503611392636</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.230059308758352</v>
+        <v>0.232140843902891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3418632584860519</v>
+        <v>0.3359322485237854</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -1499,19 +1499,19 @@
         <v>200929</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>175950</v>
+        <v>174650</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>226152</v>
+        <v>228372</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2992186343280671</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2620206473452763</v>
+        <v>0.2600852253352067</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.336780532173423</v>
+        <v>0.3400860174869331</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>38113</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>27938</v>
+        <v>27375</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51409</v>
+        <v>50779</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07017511883258364</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05144059508104531</v>
+        <v>0.05040410213496435</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09465547570811543</v>
+        <v>0.09349634849516192</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1624,19 +1624,19 @@
         <v>15493</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8981</v>
+        <v>8432</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25730</v>
+        <v>24605</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06704981053412895</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03886640537515486</v>
+        <v>0.03649141341595384</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1113494867089867</v>
+        <v>0.1064794050488402</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -1645,19 +1645,19 @@
         <v>53606</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41329</v>
+        <v>41065</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69811</v>
+        <v>70128</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06924230034008229</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05338399064886414</v>
+        <v>0.05304250813613116</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09017321918922488</v>
+        <v>0.09058367811057572</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>109042</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91530</v>
+        <v>91252</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128837</v>
+        <v>128857</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2007721575608162</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.168529657858411</v>
+        <v>0.1680162981274376</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2372194655394126</v>
+        <v>0.2372568183446278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -1695,19 +1695,19 @@
         <v>45558</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34070</v>
+        <v>34115</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58528</v>
+        <v>59297</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1971593091173387</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1474413064373772</v>
+        <v>0.1476384771089095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2532881276988121</v>
+        <v>0.2566146222537648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>149</v>
@@ -1716,19 +1716,19 @@
         <v>154600</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>131637</v>
+        <v>132723</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>179640</v>
+        <v>179346</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1996938217562024</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1700338416863489</v>
+        <v>0.1714359679835298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2320381240172157</v>
+        <v>0.2316578497842877</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>126389</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>107653</v>
+        <v>109098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>148891</v>
+        <v>146537</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2327117357182384</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1982156774760789</v>
+        <v>0.2008763691395345</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2741433446638411</v>
+        <v>0.2698095503397367</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -1766,19 +1766,19 @@
         <v>42849</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32594</v>
+        <v>32101</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56798</v>
+        <v>55419</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1854369075622361</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1410536648134603</v>
+        <v>0.1389219866892581</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2458002424806967</v>
+        <v>0.239832180774582</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>156</v>
@@ -1787,19 +1787,19 @@
         <v>169238</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>145876</v>
+        <v>145071</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>192678</v>
+        <v>194073</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2186015009117885</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.18842549151737</v>
+        <v>0.1873856969767847</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2488788661790879</v>
+        <v>0.2506811841737603</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>68875</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53516</v>
+        <v>52680</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86708</v>
+        <v>86021</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1268162205462476</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09853559267493628</v>
+        <v>0.09699730653675977</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1596502964848332</v>
+        <v>0.1583855386867932</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>32</v>
@@ -1837,19 +1837,19 @@
         <v>33893</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>24311</v>
+        <v>23679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45813</v>
+        <v>45704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1466769027828121</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1052107691679561</v>
+        <v>0.102473231356478</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1982641294394553</v>
+        <v>0.1977902914380429</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>93</v>
@@ -1858,19 +1858,19 @@
         <v>102768</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>83701</v>
+        <v>84896</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>125310</v>
+        <v>124592</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1327440874620077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1081149357915522</v>
+        <v>0.1096587288162681</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.161861186174597</v>
+        <v>0.1609328406221444</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>200693</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174766</v>
+        <v>179005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>222078</v>
+        <v>227379</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3695247673421142</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3217862564849363</v>
+        <v>0.3295916893790056</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4088982962489951</v>
+        <v>0.4186602839740108</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -1908,19 +1908,19 @@
         <v>93279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>78916</v>
+        <v>78129</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109280</v>
+        <v>109016</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4036770700034842</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3415195115060849</v>
+        <v>0.3381151819310802</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4729234962681635</v>
+        <v>0.4717807337477077</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>273</v>
@@ -1929,19 +1929,19 @@
         <v>293972</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267348</v>
+        <v>265399</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>323961</v>
+        <v>323350</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3797182895299191</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3453281787393278</v>
+        <v>0.3428116564102449</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4184545840874464</v>
+        <v>0.4176650865591</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>83745</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67633</v>
+        <v>66539</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105122</v>
+        <v>104223</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.086426378996296</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06979850352134784</v>
+        <v>0.06866916449879909</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1084879006641186</v>
+        <v>0.1075603513891863</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2054,19 +2054,19 @@
         <v>68506</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54185</v>
+        <v>52927</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86010</v>
+        <v>84910</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1034593890769158</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0818309213592994</v>
+        <v>0.07993086431148699</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1298932607915319</v>
+        <v>0.1282321060197077</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>140</v>
@@ -2075,19 +2075,19 @@
         <v>152251</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>129097</v>
+        <v>128064</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177964</v>
+        <v>180278</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09334091692877611</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07914559714877305</v>
+        <v>0.0785124791129921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.109104392271722</v>
+        <v>0.1105231450707705</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>193902</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>170759</v>
+        <v>169360</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>220730</v>
+        <v>221103</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2001108782205901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1762263889042747</v>
+        <v>0.1747827752765096</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2277975725260439</v>
+        <v>0.2281821276510504</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -2125,19 +2125,19 @@
         <v>119123</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>100583</v>
+        <v>99902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>138976</v>
+        <v>139561</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1799009748217444</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1519016148102341</v>
+        <v>0.1508737143235251</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2098833668757188</v>
+        <v>0.2107675949678353</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>298</v>
@@ -2146,19 +2146,19 @@
         <v>313025</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>281459</v>
+        <v>281533</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>346317</v>
+        <v>343114</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1919066827788181</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1725547925535714</v>
+        <v>0.1725997857077429</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2123172730691424</v>
+        <v>0.2103536724123581</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>239025</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>212730</v>
+        <v>211140</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>268426</v>
+        <v>263885</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2466785429511281</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2195410867700759</v>
+        <v>0.2179002256646847</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2770205077724676</v>
+        <v>0.2723340582568026</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>139</v>
@@ -2196,19 +2196,19 @@
         <v>150973</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>128798</v>
+        <v>129338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>174575</v>
+        <v>176474</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2280017572602795</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.194512552944982</v>
+        <v>0.1953284370707555</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2636454528957216</v>
+        <v>0.2665141311168773</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>360</v>
@@ -2217,19 +2217,19 @@
         <v>389998</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>353675</v>
+        <v>352197</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>424023</v>
+        <v>423040</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2390967155169325</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2168282185507944</v>
+        <v>0.2159217128401864</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2599562112869568</v>
+        <v>0.2593535413345897</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>100636</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>81669</v>
+        <v>83386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>120979</v>
+        <v>121518</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1038576933152319</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08428425643461851</v>
+        <v>0.08605624432539659</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1248525773244723</v>
+        <v>0.125409297846604</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>72</v>
@@ -2267,19 +2267,19 @@
         <v>78002</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>62403</v>
+        <v>62939</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>97372</v>
+        <v>97308</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1178004550801689</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09424200358832867</v>
+        <v>0.09505095877253156</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1470529345598043</v>
+        <v>0.1469564883561796</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>167</v>
@@ -2288,19 +2288,19 @@
         <v>178638</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>153989</v>
+        <v>152823</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>206257</v>
+        <v>204635</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1095177472135668</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.094406020431598</v>
+        <v>0.09369121202199017</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1264500533313447</v>
+        <v>0.1254556290328087</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>351667</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>322187</v>
+        <v>323619</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>382572</v>
+        <v>384948</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3629265065167538</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3325028457546072</v>
+        <v>0.3339807639750707</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3948217658419382</v>
+        <v>0.3972733104975323</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>230</v>
@@ -2338,19 +2338,19 @@
         <v>245553</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>221739</v>
+        <v>219056</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>271933</v>
+        <v>270393</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3708374237608914</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3348743300540303</v>
+        <v>0.3308221378000883</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.41067739160478</v>
+        <v>0.4083524793122153</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>558</v>
@@ -2359,19 +2359,19 @@
         <v>597219</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>557814</v>
+        <v>557263</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>637852</v>
+        <v>636664</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3661379375619064</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3419798418755651</v>
+        <v>0.3416423691475663</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3910489961421246</v>
+        <v>0.3903204643984476</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>42831</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31695</v>
+        <v>31249</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>55976</v>
+        <v>57672</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1055223221167284</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07808497740279234</v>
+        <v>0.07698808274802796</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1379052164287697</v>
+        <v>0.1420837493839102</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2484,19 +2484,19 @@
         <v>52183</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>37774</v>
+        <v>38548</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>68439</v>
+        <v>69150</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07705395515770637</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05577742607622557</v>
+        <v>0.05692041166539501</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.101058100249351</v>
+        <v>0.1021070887646773</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>87</v>
@@ -2505,19 +2505,19 @@
         <v>95014</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77508</v>
+        <v>76385</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116318</v>
+        <v>114786</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.08772242628731938</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07155973848967924</v>
+        <v>0.07052260467866153</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1073911931040597</v>
+        <v>0.1059765148277778</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>97929</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>81409</v>
+        <v>79923</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>118094</v>
+        <v>115438</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2412655055891112</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2005643552804034</v>
+        <v>0.1969036721821924</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2909452593173282</v>
+        <v>0.2844006441123047</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>97</v>
@@ -2555,19 +2555,19 @@
         <v>105539</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89174</v>
+        <v>85953</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>126329</v>
+        <v>124792</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1558402610494254</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.131675315245435</v>
+        <v>0.1269190128082843</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1865387465746871</v>
+        <v>0.1842686877275148</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>192</v>
@@ -2576,19 +2576,19 @@
         <v>203469</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>176945</v>
+        <v>180057</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>231830</v>
+        <v>230070</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.187853223240885</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1633653423157951</v>
+        <v>0.1662380216379677</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2140381606773234</v>
+        <v>0.2124130167822018</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>94628</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>79056</v>
+        <v>78598</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113482</v>
+        <v>111025</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2331323985337245</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1947667811795074</v>
+        <v>0.1936382845247158</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2795808158502477</v>
+        <v>0.2735295714677781</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>114</v>
@@ -2626,19 +2626,19 @@
         <v>124805</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>105561</v>
+        <v>104309</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>145023</v>
+        <v>146749</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1842884109011902</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1558720879542648</v>
+        <v>0.1540239578500948</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2141421917308622</v>
+        <v>0.2166909917895029</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>207</v>
@@ -2647,19 +2647,19 @@
         <v>219433</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>193982</v>
+        <v>194270</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>250706</v>
+        <v>250030</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2025926105296036</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1790945209394677</v>
+        <v>0.1793604839169179</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2314657356771065</v>
+        <v>0.2308416344731616</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>48619</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>35211</v>
+        <v>36153</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>63629</v>
+        <v>62582</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1197816375107854</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08674892361796194</v>
+        <v>0.08906908421240738</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1567617624590656</v>
+        <v>0.1541819115134377</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>90</v>
@@ -2697,19 +2697,19 @@
         <v>94963</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>78097</v>
+        <v>79263</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>112483</v>
+        <v>113814</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1402228332081764</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1153195333944389</v>
+        <v>0.1170412569632572</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1660934688254076</v>
+        <v>0.1680595513082002</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>134</v>
@@ -2718,19 +2718,19 @@
         <v>143582</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>122264</v>
+        <v>122602</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>166532</v>
+        <v>167142</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1325625305829401</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1128810020129072</v>
+        <v>0.1131925453727505</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1537512485135615</v>
+        <v>0.1543146812520201</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>121891</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>104621</v>
+        <v>104249</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>140831</v>
+        <v>142299</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3002981362496505</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2577519030732441</v>
+        <v>0.2568357253997092</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3469608144638811</v>
+        <v>0.3505767708443864</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>278</v>
@@ -2768,19 +2768,19 @@
         <v>299737</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>272516</v>
+        <v>272351</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>325316</v>
+        <v>328378</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4425945396835017</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4024002335908545</v>
+        <v>0.4021571753053954</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4803661523972725</v>
+        <v>0.4848863158888412</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>392</v>
@@ -2789,19 +2789,19 @@
         <v>421627</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>386382</v>
+        <v>391995</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>451897</v>
+        <v>453924</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3892692093592519</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3567290518187559</v>
+        <v>0.3619109619920007</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4172154975374329</v>
+        <v>0.4190875184717228</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>22334</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15008</v>
+        <v>14839</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>33776</v>
+        <v>30681</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1864882443449551</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1253178729582485</v>
+        <v>0.1239014208863173</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2820247548960896</v>
+        <v>0.2561795509819348</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>57</v>
@@ -2914,19 +2914,19 @@
         <v>60558</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>45933</v>
+        <v>46920</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>76190</v>
+        <v>77318</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06555375130029722</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04972215467328</v>
+        <v>0.0507909049037719</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08247529561034275</v>
+        <v>0.08369701402834551</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>79</v>
@@ -2935,19 +2935,19 @@
         <v>82892</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>66988</v>
+        <v>66978</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>103266</v>
+        <v>102907</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07943266310631779</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06419185997791094</v>
+        <v>0.06418316497526712</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09895653426746845</v>
+        <v>0.09861207005009157</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>43694</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>33633</v>
+        <v>34714</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>53985</v>
+        <v>55539</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.364837539862413</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2808344969263257</v>
+        <v>0.28985995006822</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4507681822956716</v>
+        <v>0.4637473417343091</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>91</v>
@@ -2985,19 +2985,19 @@
         <v>98494</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>80182</v>
+        <v>81798</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>118797</v>
+        <v>118687</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1066192871253134</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.08679724199864682</v>
+        <v>0.0885461650554184</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1285976116491895</v>
+        <v>0.1284785968509347</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>135</v>
@@ -3006,19 +3006,19 @@
         <v>142188</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>121424</v>
+        <v>119434</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>166069</v>
+        <v>164094</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1362534160344207</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1163563839096215</v>
+        <v>0.114449485999298</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1591386408181252</v>
+        <v>0.1572459713132621</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>23319</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>15587</v>
+        <v>16078</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>32757</v>
+        <v>32333</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1947074487341786</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.130152752783612</v>
+        <v>0.1342486530753508</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2735191760549753</v>
+        <v>0.2699749031132887</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>170</v>
@@ -3056,19 +3056,19 @@
         <v>181056</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>156961</v>
+        <v>156592</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>206866</v>
+        <v>204665</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1959929771512959</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1699097174745965</v>
+        <v>0.169510259190267</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2239313988263007</v>
+        <v>0.2215497301330637</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>194</v>
@@ -3077,19 +3077,19 @@
         <v>204375</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>180781</v>
+        <v>179731</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>234262</v>
+        <v>230866</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1958454449206137</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1732360776625568</v>
+        <v>0.172230274634843</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2244855359209021</v>
+        <v>0.2212305627848042</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>11959</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>6046</v>
+        <v>5935</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20783</v>
+        <v>20556</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0998554706782904</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0504874464356933</v>
+        <v>0.04955644979944611</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1735335716373306</v>
+        <v>0.1716366485533152</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>140</v>
@@ -3127,19 +3127,19 @@
         <v>148284</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>125721</v>
+        <v>126555</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>171734</v>
+        <v>172776</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1605171416879667</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1360928059081169</v>
+        <v>0.1369949254335835</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1859014963258591</v>
+        <v>0.1870290555141707</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>151</v>
@@ -3148,19 +3148,19 @@
         <v>160243</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>136385</v>
+        <v>138265</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>186051</v>
+        <v>185081</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1535553728761668</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1306934695859326</v>
+        <v>0.1324946262152525</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1782859428502198</v>
+        <v>0.1773570056003232</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>18457</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>11673</v>
+        <v>10921</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>28687</v>
+        <v>27692</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1541112963801629</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09746599736729597</v>
+        <v>0.09118650696979182</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2395364310105866</v>
+        <v>0.2312268451357236</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>407</v>
@@ -3198,19 +3198,19 @@
         <v>435398</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>404948</v>
+        <v>403097</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>464232</v>
+        <v>465198</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4713168427351267</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4383546834572049</v>
+        <v>0.4363515180635296</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5025295847889113</v>
+        <v>0.5035752275196228</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>424</v>
@@ -3219,19 +3219,19 @@
         <v>453854</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>419605</v>
+        <v>419493</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>486152</v>
+        <v>485611</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.434913103062481</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4020931682146677</v>
+        <v>0.4019855220153757</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4658631757139122</v>
+        <v>0.4653442330307155</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>247391</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>216310</v>
+        <v>216650</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>278070</v>
+        <v>280114</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08899374465552141</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07781299386103521</v>
+        <v>0.07793557015952771</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1000300551298157</v>
+        <v>0.1007655256574086</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>227</v>
@@ -3344,19 +3344,19 @@
         <v>247586</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>218549</v>
+        <v>217429</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>278657</v>
+        <v>283634</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.08041091672199646</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07098038937290456</v>
+        <v>0.07061658411012579</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.09050214014814455</v>
+        <v>0.09211870911040633</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>461</v>
@@ -3365,19 +3365,19 @@
         <v>494976</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>452700</v>
+        <v>454556</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>538621</v>
+        <v>540092</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.08448321914801413</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0772673858511775</v>
+        <v>0.07758416804031366</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0919325399192271</v>
+        <v>0.09218362148978107</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>589392</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>548035</v>
+        <v>544154</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>637855</v>
+        <v>629763</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2120218564997538</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1971444502839441</v>
+        <v>0.1957484015670528</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2294553171291747</v>
+        <v>0.2265447076998823</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>466</v>
@@ -3415,19 +3415,19 @@
         <v>503078</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>461522</v>
+        <v>459173</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>548181</v>
+        <v>544250</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1633896792921996</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1498929695514268</v>
+        <v>0.149130355423111</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1780383091772968</v>
+        <v>0.1767616279362222</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1034</v>
@@ -3436,19 +3436,19 @@
         <v>1092470</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1035457</v>
+        <v>1031732</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1160161</v>
+        <v>1160003</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1864642340611785</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1767332223618477</v>
+        <v>0.1760974596319347</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1980178643389641</v>
+        <v>0.1979908199260509</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>682324</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>636991</v>
+        <v>636815</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>733892</v>
+        <v>729069</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2454523131293515</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2291448254445103</v>
+        <v>0.2290811799192389</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2640028868932128</v>
+        <v>0.2622679850402262</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>602</v>
@@ -3486,19 +3486,19 @@
         <v>656402</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>606856</v>
+        <v>612340</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>709384</v>
+        <v>701989</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2131861635214612</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1970947164049759</v>
+        <v>0.1988757410541215</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2303938472834332</v>
+        <v>0.2279921541660322</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1237</v>
@@ -3507,19 +3507,19 @@
         <v>1338726</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1276422</v>
+        <v>1278026</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1408450</v>
+        <v>1407927</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2284955138130143</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2178613904077531</v>
+        <v>0.2181352582167207</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2403960639547339</v>
+        <v>0.240306843989274</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>337827</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>300811</v>
+        <v>302248</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>373562</v>
+        <v>376398</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1215263930742297</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1082106429765114</v>
+        <v>0.1087277337852467</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1343813783903703</v>
+        <v>0.135401463097229</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>394</v>
@@ -3557,19 +3557,19 @@
         <v>420866</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>381694</v>
+        <v>385390</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>460607</v>
+        <v>458069</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1366887454670729</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1239666448848776</v>
+        <v>0.125166886732584</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1495960485220083</v>
+        <v>0.148771660665369</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>698</v>
@@ -3578,19 +3578,19 @@
         <v>758692</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>705253</v>
+        <v>706932</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>813241</v>
+        <v>811657</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1294946498948748</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1203736073512553</v>
+        <v>0.1206601666499474</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1388051356804066</v>
+        <v>0.1385346382179021</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>922931</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>862800</v>
+        <v>871285</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>973996</v>
+        <v>970719</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3320056926411435</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3103749102865539</v>
+        <v>0.313427351163124</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3503754884952047</v>
+        <v>0.3491965477406374</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1160</v>
@@ -3628,19 +3628,19 @@
         <v>1251076</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1195733</v>
+        <v>1197436</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1304256</v>
+        <v>1307969</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4063244949972699</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3883500684183664</v>
+        <v>0.3889033336708003</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4235962997868043</v>
+        <v>0.4248022573927091</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2009</v>
@@ -3649,19 +3649,19 @@
         <v>2174007</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2091153</v>
+        <v>2101474</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2247874</v>
+        <v>2258481</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3710623830829182</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3569208598110317</v>
+        <v>0.3586824993828891</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3836701249307504</v>
+        <v>0.3854805425111272</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>45259</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>33206</v>
+        <v>35276</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60135</v>
+        <v>60527</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1254225698256039</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09202273509368958</v>
+        <v>0.09775875174904838</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1666465561362646</v>
+        <v>0.167732665817238</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -4016,19 +4016,19 @@
         <v>31421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22676</v>
+        <v>22519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44048</v>
+        <v>44435</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09962539268964223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07189629901328787</v>
+        <v>0.07139809110946346</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1396598438615566</v>
+        <v>0.1408866346351822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -4037,19 +4037,19 @@
         <v>76680</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60769</v>
+        <v>60142</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94050</v>
+        <v>94327</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.113390997009721</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08986236063998208</v>
+        <v>0.08893567393246148</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1390764190639795</v>
+        <v>0.1394862774784728</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>81669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>67405</v>
+        <v>65842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>101201</v>
+        <v>98695</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.226322617409809</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1867957836399051</v>
+        <v>0.1824637214678189</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.280451379083375</v>
+        <v>0.2735060797709766</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -4087,19 +4087,19 @@
         <v>94536</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>78315</v>
+        <v>79904</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>110656</v>
+        <v>112062</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2997393971255928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2483085453265996</v>
+        <v>0.2533455887822215</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3508479129983242</v>
+        <v>0.3553074569917724</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>170</v>
@@ -4108,19 +4108,19 @@
         <v>176205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154163</v>
+        <v>153909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198926</v>
+        <v>199930</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.260563547198469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2279686686542774</v>
+        <v>0.2275935617260384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2941619339730611</v>
+        <v>0.2956465823659276</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>112904</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94975</v>
+        <v>96168</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131906</v>
+        <v>131257</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3128835239934185</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2631961142477137</v>
+        <v>0.2665026614297801</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3655425123879407</v>
+        <v>0.3637420266876212</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -4158,19 +4158,19 @@
         <v>81022</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>65605</v>
+        <v>64394</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>96610</v>
+        <v>96347</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2568904209025646</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2080097192649966</v>
+        <v>0.2041678400419945</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3063148684793601</v>
+        <v>0.3054818518475543</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>183</v>
@@ -4179,19 +4179,19 @@
         <v>193926</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>170609</v>
+        <v>172400</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>218896</v>
+        <v>219018</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2867688412328105</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2522884065309198</v>
+        <v>0.2549374736668634</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.323692559883089</v>
+        <v>0.3238737910130386</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>45091</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>31582</v>
+        <v>33161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58828</v>
+        <v>60523</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1249578152243038</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0875204528764395</v>
+        <v>0.09189799580446005</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1630243565040739</v>
+        <v>0.1677222858574872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -4229,19 +4229,19 @@
         <v>48874</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36603</v>
+        <v>36503</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65139</v>
+        <v>64862</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1549606086476227</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1160531244092785</v>
+        <v>0.1157377847980003</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2065327967593459</v>
+        <v>0.205652930959204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>84</v>
@@ -4250,19 +4250,19 @@
         <v>93965</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>75467</v>
+        <v>75099</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114332</v>
+        <v>113508</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1389508498827099</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1115975854152775</v>
+        <v>0.1110524774803344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1690680250690893</v>
+        <v>0.1678505420592636</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>75928</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>61165</v>
+        <v>61335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93780</v>
+        <v>92211</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.210413473546865</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1695018917949105</v>
+        <v>0.1699736196417227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2598863741352801</v>
+        <v>0.2555375052050484</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>57</v>
@@ -4300,19 +4300,19 @@
         <v>59542</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>47131</v>
+        <v>46352</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>75250</v>
+        <v>74311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1887841806345777</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1494352194843259</v>
+        <v>0.1469660875320544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2385888323838163</v>
+        <v>0.2356112204876916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>126</v>
@@ -4321,19 +4321,19 @@
         <v>135469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>116241</v>
+        <v>114943</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>159041</v>
+        <v>158382</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2003257646762896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1718911966068715</v>
+        <v>0.1699714318371228</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2351814301619058</v>
+        <v>0.2342079778925548</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>31884</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21451</v>
+        <v>20912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>46602</v>
+        <v>43945</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1005222663148982</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06763052516974896</v>
+        <v>0.06592985745963401</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1469247461393348</v>
+        <v>0.1385459484000343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4446,19 +4446,19 @@
         <v>35860</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>25455</v>
+        <v>25970</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>48988</v>
+        <v>49060</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1117986317662576</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07935799673012538</v>
+        <v>0.08096501038106668</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1527261382853464</v>
+        <v>0.1529500422064674</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>63</v>
@@ -4467,19 +4467,19 @@
         <v>67744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53445</v>
+        <v>53847</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>85956</v>
+        <v>86881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1061920351499581</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08377658136432907</v>
+        <v>0.08440676403923962</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1347400520070242</v>
+        <v>0.1361887674350792</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>76321</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>60796</v>
+        <v>61034</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93878</v>
+        <v>91454</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2406216032250134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1916747436738187</v>
+        <v>0.1924253475719004</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2959742906237975</v>
+        <v>0.2883305179763135</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>82</v>
@@ -4517,19 +4517,19 @@
         <v>85168</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>69635</v>
+        <v>70239</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>102628</v>
+        <v>102557</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2655223618044478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2170959847067182</v>
+        <v>0.2189766829723388</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.319954722467731</v>
+        <v>0.3197341675723611</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>153</v>
@@ -4538,19 +4538,19 @@
         <v>161490</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139639</v>
+        <v>141579</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>185003</v>
+        <v>186165</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2531417317692695</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2188897931247711</v>
+        <v>0.2219315695336464</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2899989550572989</v>
+        <v>0.2918204568790256</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>89386</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>73522</v>
+        <v>74320</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>106728</v>
+        <v>106515</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2818112947341704</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.231796679407275</v>
+        <v>0.2343128859166601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3364857621752378</v>
+        <v>0.3358149699496986</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>78</v>
@@ -4588,19 +4588,19 @@
         <v>85588</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>70099</v>
+        <v>70387</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103572</v>
+        <v>104223</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2668303793272851</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2185418116473956</v>
+        <v>0.2194391314594052</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3228964785414934</v>
+        <v>0.3249261894480149</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>166</v>
@@ -4609,19 +4609,19 @@
         <v>174974</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>153816</v>
+        <v>153945</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>201313</v>
+        <v>201401</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2742788741451953</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2411129357064356</v>
+        <v>0.2413155161360369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3155665641459432</v>
+        <v>0.3157041242248063</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>45143</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32993</v>
+        <v>32758</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57977</v>
+        <v>60961</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1423252231540028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1040198716045991</v>
+        <v>0.1032786873458394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1827877739137981</v>
+        <v>0.1921942904356238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -4659,19 +4659,19 @@
         <v>42328</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31421</v>
+        <v>31348</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54125</v>
+        <v>54647</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1319613773768256</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09795864038913359</v>
+        <v>0.0977308220178891</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1687419096919931</v>
+        <v>0.1703679207776597</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>83</v>
@@ -4680,19 +4680,19 @@
         <v>87471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>72144</v>
+        <v>70422</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106711</v>
+        <v>105142</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1371142702053537</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1130889207870082</v>
+        <v>0.1103896799871945</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1672737998190161</v>
+        <v>0.164814956098208</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>74449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59709</v>
+        <v>58529</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91103</v>
+        <v>89282</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2347196125719151</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.188248130760542</v>
+        <v>0.1845281812546607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2872250741196537</v>
+        <v>0.2814817804967843</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -4730,19 +4730,19 @@
         <v>71814</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56663</v>
+        <v>57220</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86974</v>
+        <v>88967</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2238872497251838</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1766539760967129</v>
+        <v>0.1783906126284196</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2711520633645488</v>
+        <v>0.2773657349488007</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>135</v>
@@ -4751,19 +4751,19 @@
         <v>146263</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>126103</v>
+        <v>125721</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169727</v>
+        <v>167268</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2292730887302234</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.197670987882774</v>
+        <v>0.1970729314013252</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2660536162180606</v>
+        <v>0.2621997427498782</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>46188</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>34241</v>
+        <v>34479</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62134</v>
+        <v>60407</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1043392322007182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07735053765683675</v>
+        <v>0.07788900007980151</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1403605376520208</v>
+        <v>0.1364594523798025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -4876,19 +4876,19 @@
         <v>10875</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5589</v>
+        <v>5754</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19070</v>
+        <v>19500</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07447702682795032</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03827891748734773</v>
+        <v>0.03940673081310439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1306065027099111</v>
+        <v>0.1335513578016822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>55</v>
@@ -4897,19 +4897,19 @@
         <v>57062</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44995</v>
+        <v>43971</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72140</v>
+        <v>73072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09693247402010212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07643272549016301</v>
+        <v>0.07469443406427434</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1225455766251855</v>
+        <v>0.1241287271772535</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>109723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>91078</v>
+        <v>94361</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127047</v>
+        <v>128580</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2478652905050081</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.205746121687402</v>
+        <v>0.213163214528713</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2870017096493018</v>
+        <v>0.2904649192838262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -4947,19 +4947,19 @@
         <v>31059</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22073</v>
+        <v>21738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41942</v>
+        <v>41017</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2127169832484824</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1511694927321427</v>
+        <v>0.1488762535139365</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.287249298628998</v>
+        <v>0.2809145524393808</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>136</v>
@@ -4968,19 +4968,19 @@
         <v>140782</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121031</v>
+        <v>120022</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>163524</v>
+        <v>161759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2391474142109656</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2055971906884935</v>
+        <v>0.2038831767278003</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2777790438166585</v>
+        <v>0.2747817345991411</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>118520</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>99214</v>
+        <v>99104</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>138044</v>
+        <v>136771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.267738784006919</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2241264447511301</v>
+        <v>0.2238768183027885</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3118431804651404</v>
+        <v>0.3089675238774083</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -5018,19 +5018,19 @@
         <v>37039</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>26809</v>
+        <v>26849</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>48757</v>
+        <v>47801</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2536677574036507</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1836071556995872</v>
+        <v>0.1838840094309939</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3339213343283091</v>
+        <v>0.3273771366316078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>150</v>
@@ -5039,19 +5039,19 @@
         <v>155558</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>134087</v>
+        <v>135605</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>178025</v>
+        <v>180536</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2642487306065607</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2277746802220775</v>
+        <v>0.230353785730347</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3024126822992763</v>
+        <v>0.3066784736896887</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>71102</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56519</v>
+        <v>56870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>88814</v>
+        <v>86757</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1606212940304713</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1276778263099972</v>
+        <v>0.1284704587913487</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2006329516451501</v>
+        <v>0.1959853036155068</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -5089,19 +5089,19 @@
         <v>17767</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10326</v>
+        <v>10106</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27740</v>
+        <v>28092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1216819024433661</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07072001127007999</v>
+        <v>0.06921464676777456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1899826794475344</v>
+        <v>0.1923946076113118</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -5110,19 +5110,19 @@
         <v>88869</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>69871</v>
+        <v>71202</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>107603</v>
+        <v>107703</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1509631105980776</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1186904566602916</v>
+        <v>0.1209518407206453</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1827869362772594</v>
+        <v>0.1829568448711647</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>97138</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80448</v>
+        <v>79867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>115188</v>
+        <v>114824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2194353992568833</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1817320936877733</v>
+        <v>0.1804216616502019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2602109570227674</v>
+        <v>0.2593886119010475</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>43</v>
@@ -5160,19 +5160,19 @@
         <v>49273</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>37272</v>
+        <v>38273</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>62770</v>
+        <v>62626</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3374563300765505</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.255267686915174</v>
+        <v>0.2621201403489059</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4298982924769602</v>
+        <v>0.4289092535003188</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>137</v>
@@ -5181,19 +5181,19 @@
         <v>146410</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>127131</v>
+        <v>125128</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>169865</v>
+        <v>168880</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2487082705642939</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2159589617004256</v>
+        <v>0.2125568990253232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2885506646418662</v>
+        <v>0.2868774735311506</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>106920</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88354</v>
+        <v>87669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128057</v>
+        <v>129664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1114389412129812</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09208859013626174</v>
+        <v>0.09137431118773461</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1334686866177548</v>
+        <v>0.1351442683497728</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>76</v>
@@ -5306,19 +5306,19 @@
         <v>76817</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62559</v>
+        <v>62380</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94231</v>
+        <v>93651</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1076140687213747</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08763953550015607</v>
+        <v>0.08738930396237395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1320108960818434</v>
+        <v>0.1311974968681218</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>178</v>
@@ -5327,19 +5327,19 @@
         <v>183737</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>158399</v>
+        <v>159772</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>211163</v>
+        <v>211542</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1098072491968152</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0946643302665344</v>
+        <v>0.09548517181805039</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1261983102071636</v>
+        <v>0.1264248780471642</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>260782</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>233003</v>
+        <v>233862</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>289638</v>
+        <v>288026</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2718041362637487</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2428507565851452</v>
+        <v>0.2437455808396355</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3018793493768635</v>
+        <v>0.3001994211925626</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>179</v>
@@ -5377,19 +5377,19 @@
         <v>181370</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>158216</v>
+        <v>159428</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>205829</v>
+        <v>206643</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2540850844039695</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2216487487147562</v>
+        <v>0.2233455173530547</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2883505854344603</v>
+        <v>0.2894907811041657</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>429</v>
@@ -5398,19 +5398,19 @@
         <v>442152</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>405632</v>
+        <v>406381</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>477934</v>
+        <v>477678</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2642451822026448</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2424195445007208</v>
+        <v>0.2428672658742856</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2856296960369133</v>
+        <v>0.285476714893417</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>254735</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>226234</v>
+        <v>226852</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>281957</v>
+        <v>282166</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2655010997389541</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2357951547051572</v>
+        <v>0.236439296115564</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2938732712783318</v>
+        <v>0.2940910231163475</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>178</v>
@@ -5448,19 +5448,19 @@
         <v>184329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>161557</v>
+        <v>161514</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>210287</v>
+        <v>206375</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2582298157738469</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2263291651093423</v>
+        <v>0.2262684937673179</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2945961919706477</v>
+        <v>0.2891151499296757</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>422</v>
@@ -5469,19 +5469,19 @@
         <v>439063</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>405492</v>
+        <v>404268</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>474981</v>
+        <v>475110</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2623991673165851</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2423357166451097</v>
+        <v>0.2416043042203784</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2838647544492394</v>
+        <v>0.2839419948530272</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>135849</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>113866</v>
+        <v>117174</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>157045</v>
+        <v>161778</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.141589987499626</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1186783707871769</v>
+        <v>0.1221257366362303</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1636822919037532</v>
+        <v>0.1686151776740219</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>83</v>
@@ -5519,19 +5519,19 @@
         <v>87059</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70759</v>
+        <v>68675</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>106320</v>
+        <v>104426</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1219633578743412</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.09912731064757689</v>
+        <v>0.09620835384315626</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1489455524287257</v>
+        <v>0.1462932199881354</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>216</v>
@@ -5540,19 +5540,19 @@
         <v>222908</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>194616</v>
+        <v>197862</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>252695</v>
+        <v>251822</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1332172600599267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1163088373927737</v>
+        <v>0.1182488165753584</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1510192605477444</v>
+        <v>0.1504971326531845</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>201164</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>179212</v>
+        <v>177688</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>227390</v>
+        <v>229968</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2096658352846899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1867862272212244</v>
+        <v>0.1851980721507727</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2370001639862829</v>
+        <v>0.2396872794119373</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>173</v>
@@ -5590,19 +5590,19 @@
         <v>184241</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161147</v>
+        <v>161464</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>206861</v>
+        <v>208128</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2581076732264676</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2257544486731131</v>
+        <v>0.2261988488344588</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2897953279197799</v>
+        <v>0.2915708821345689</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>368</v>
@@ -5611,19 +5611,19 @@
         <v>385405</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>352443</v>
+        <v>351233</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>422307</v>
+        <v>422058</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2303311412240283</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2106321666617895</v>
+        <v>0.2099089819723524</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2523850299038961</v>
+        <v>0.2522359067031238</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>72549</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57877</v>
+        <v>57222</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>89824</v>
+        <v>88066</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1470101876148472</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1172791472928749</v>
+        <v>0.1159528444342979</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1820152318197875</v>
+        <v>0.1784543297409038</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -5736,19 +5736,19 @@
         <v>68101</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>54633</v>
+        <v>54426</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>86242</v>
+        <v>84820</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1050566923896461</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08428013757202671</v>
+        <v>0.08396204925554769</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1330422172887417</v>
+        <v>0.1308493830181153</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>137</v>
@@ -5757,19 +5757,19 @@
         <v>140650</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>120176</v>
+        <v>119987</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>163888</v>
+        <v>162279</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1231905933440429</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1052584471244228</v>
+        <v>0.1050929420369929</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1435442309403117</v>
+        <v>0.1421351379812923</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>124360</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105964</v>
+        <v>106543</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>144046</v>
+        <v>144168</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2519969802216555</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.214720807631149</v>
+        <v>0.2158938316775844</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2918896965944074</v>
+        <v>0.2921359431195886</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>129</v>
@@ -5807,19 +5807,19 @@
         <v>137373</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>116501</v>
+        <v>116358</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>156210</v>
+        <v>160112</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2119210022243795</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1797224443907909</v>
+        <v>0.1795014366762298</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2409802026209718</v>
+        <v>0.2469992014082017</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>247</v>
@@ -5828,19 +5828,19 @@
         <v>261732</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>232893</v>
+        <v>236212</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>289806</v>
+        <v>292624</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2292433686148834</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2039837312552296</v>
+        <v>0.2068907293784404</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2538318615432645</v>
+        <v>0.2563006590881715</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>143169</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>124644</v>
+        <v>123317</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>164790</v>
+        <v>163191</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2901122016951871</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2525730239061871</v>
+        <v>0.249884779987226</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.333923449718835</v>
+        <v>0.3306845081893716</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>163</v>
@@ -5878,19 +5878,19 @@
         <v>173791</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>153049</v>
+        <v>152678</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>196334</v>
+        <v>199263</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2681018746599972</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2361046551314682</v>
+        <v>0.2355321091488215</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3028779485572613</v>
+        <v>0.307397526334119</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>304</v>
@@ -5899,19 +5899,19 @@
         <v>316960</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>288579</v>
+        <v>288691</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>350214</v>
+        <v>349939</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2776155775895748</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2527572250722793</v>
+        <v>0.2528557548199443</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.306741861639891</v>
+        <v>0.306500366083494</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>54121</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>41161</v>
+        <v>41907</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>69477</v>
+        <v>68740</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1096691342920818</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08340727947930948</v>
+        <v>0.08491956715498634</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1407861067622815</v>
+        <v>0.1392923341855397</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>102</v>
@@ -5949,19 +5949,19 @@
         <v>108395</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>89743</v>
+        <v>89611</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>128164</v>
+        <v>129487</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1672175737388828</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1384444816998759</v>
+        <v>0.1382401411041414</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1977150677385187</v>
+        <v>0.1997562278454446</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>156</v>
@@ -5970,19 +5970,19 @@
         <v>162516</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>139688</v>
+        <v>139879</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>185903</v>
+        <v>187789</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1423429430220236</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.122348042058548</v>
+        <v>0.1225160491559392</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1628265289062668</v>
+        <v>0.1644785804141612</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>99297</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>82688</v>
+        <v>82277</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>118796</v>
+        <v>117345</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2012114961762284</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1675554015954378</v>
+        <v>0.1667222667138099</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2407243394715061</v>
+        <v>0.2377831578756289</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>149</v>
@@ -6020,19 +6020,19 @@
         <v>160568</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>138958</v>
+        <v>138944</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>181371</v>
+        <v>183485</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2477028569870944</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.214366733317578</v>
+        <v>0.214344561825646</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2797957648142073</v>
+        <v>0.2830569426909272</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>246</v>
@@ -6041,19 +6041,19 @@
         <v>259865</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>231184</v>
+        <v>232639</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>289630</v>
+        <v>289725</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2276075174294753</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2024869568984921</v>
+        <v>0.2037611530542763</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2536775952761865</v>
+        <v>0.2537614691061276</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>26709</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>18805</v>
+        <v>17695</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>37073</v>
+        <v>36000</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1876356971148602</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.132111152345494</v>
+        <v>0.1243083299208275</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2604492244893918</v>
+        <v>0.2529073020147129</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -6166,19 +6166,19 @@
         <v>58796</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44813</v>
+        <v>46258</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>75116</v>
+        <v>75892</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06349859415361572</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04839733622309646</v>
+        <v>0.04995799954030707</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08112377248160246</v>
+        <v>0.08196171242455329</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>82</v>
@@ -6187,19 +6187,19 @@
         <v>85505</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>69593</v>
+        <v>67429</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>105144</v>
+        <v>105656</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.08003932563326234</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06514512521093058</v>
+        <v>0.0631186194778849</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.09842355684176578</v>
+        <v>0.098902451877832</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>51922</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>39255</v>
+        <v>41574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>63138</v>
+        <v>64070</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3647635760472311</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2757790761856537</v>
+        <v>0.2920685040934843</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4435601336626078</v>
+        <v>0.4501077128137135</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>205</v>
@@ -6237,19 +6237,19 @@
         <v>219007</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>196783</v>
+        <v>194366</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>247705</v>
+        <v>249864</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2365240436931285</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2125222229982617</v>
+        <v>0.2099126083872156</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2675170927884756</v>
+        <v>0.2698491374539555</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>255</v>
@@ -6258,19 +6258,19 @@
         <v>270929</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>242694</v>
+        <v>241815</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>301512</v>
+        <v>301383</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.253611406126638</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2271812779577664</v>
+        <v>0.226358127970351</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.282240197250853</v>
+        <v>0.2821189810044388</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>34198</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>25056</v>
+        <v>24803</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>45361</v>
+        <v>45137</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.240251065235301</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1760260972831595</v>
+        <v>0.1742452991710925</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.31867428231016</v>
+        <v>0.31709546224367</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>232</v>
@@ -6308,19 +6308,19 @@
         <v>253287</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>225313</v>
+        <v>227349</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>281938</v>
+        <v>280825</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2735458993110952</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2433350315593286</v>
+        <v>0.245533962323065</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3044884887087897</v>
+        <v>0.3032862642087683</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>264</v>
@@ -6329,19 +6329,19 @@
         <v>287485</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>259091</v>
+        <v>257036</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>319022</v>
+        <v>317001</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2691095068307661</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2425298745072416</v>
+        <v>0.2406063786907543</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2986305178144906</v>
+        <v>0.296738648243025</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>12932</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7276</v>
+        <v>7710</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>21279</v>
+        <v>22900</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.09084812156375875</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05111214682647748</v>
+        <v>0.05416611070065255</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1494909420480831</v>
+        <v>0.1608807434068591</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>134</v>
@@ -6379,19 +6379,19 @@
         <v>152298</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>128353</v>
+        <v>129616</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>176635</v>
+        <v>176507</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1644791997875638</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1386193347363789</v>
+        <v>0.1399837913816963</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1907631653665421</v>
+        <v>0.1906248635010449</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>146</v>
@@ -6400,19 +6400,19 @@
         <v>165229</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>142909</v>
+        <v>142357</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>190538</v>
+        <v>192931</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1546681774227432</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1337746963094064</v>
+        <v>0.1332575003750502</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1783590530845497</v>
+        <v>0.1805989904183932</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>16583</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>10207</v>
+        <v>9273</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>26847</v>
+        <v>26052</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.116501540038849</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07170566897529553</v>
+        <v>0.06514372119621734</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1886059166805547</v>
+        <v>0.1830228003861817</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>208</v>
@@ -6450,19 +6450,19 @@
         <v>242552</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>214726</v>
+        <v>214943</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>270093</v>
+        <v>271243</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2619522630545967</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2319008355476989</v>
+        <v>0.2321352522070892</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2916963013006305</v>
+        <v>0.2929377927387335</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>223</v>
@@ -6471,19 +6471,19 @@
         <v>259135</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>230260</v>
+        <v>232655</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>292104</v>
+        <v>291534</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2425715839865904</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2155417772726888</v>
+        <v>0.2177843444103076</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2734332909553583</v>
+        <v>0.272899878397813</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>329509</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>293707</v>
+        <v>294584</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>364974</v>
+        <v>364254</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1213215078626477</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1081397338496201</v>
+        <v>0.1084627828774316</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1343795745775583</v>
+        <v>0.1341143421778737</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>273</v>
@@ -6596,19 +6596,19 @@
         <v>281869</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>252190</v>
+        <v>250878</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>315688</v>
+        <v>317860</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.0918096934136954</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.08214257867352044</v>
+        <v>0.08171541220013311</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.102825245764976</v>
+        <v>0.1035325977459746</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>586</v>
@@ -6617,19 +6617,19 @@
         <v>611378</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>563426</v>
+        <v>568671</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>664815</v>
+        <v>656661</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.105662442065317</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.09737518856603554</v>
+        <v>0.09828159511137179</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1148977895345504</v>
+        <v>0.113488650033721</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>704776</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>662811</v>
+        <v>661745</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>755202</v>
+        <v>752214</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2594910807455421</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2440399985838668</v>
+        <v>0.2436474837853386</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2780571203036029</v>
+        <v>0.276956931355757</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>718</v>
@@ -6667,19 +6667,19 @@
         <v>748513</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>702269</v>
+        <v>700578</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>795867</v>
+        <v>797336</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2438038738597106</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2287412336894182</v>
+        <v>0.2281904955615417</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2592277158767979</v>
+        <v>0.2597062568391644</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1390</v>
@@ -6688,19 +6688,19 @@
         <v>1453290</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1393748</v>
+        <v>1388797</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1524829</v>
+        <v>1515889</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2511673971839474</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2408769458168868</v>
+        <v>0.2400213177844264</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2635312751679165</v>
+        <v>0.2619861509163273</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>752913</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>709259</v>
+        <v>710256</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>809133</v>
+        <v>801359</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2772143633723608</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2611413753801979</v>
+        <v>0.2615086889916894</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2979140479876996</v>
+        <v>0.2950519024600799</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>764</v>
@@ -6738,19 +6738,19 @@
         <v>815054</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>763003</v>
+        <v>769224</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>858761</v>
+        <v>866188</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2654774306755225</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2485234152616378</v>
+        <v>0.2505495975579521</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.279713585853657</v>
+        <v>0.2821324475927895</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1489</v>
@@ -6759,19 +6759,19 @@
         <v>1567967</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1499232</v>
+        <v>1500682</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1638542</v>
+        <v>1637304</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2709867082860719</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2591073911429314</v>
+        <v>0.2593580242227631</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2831840140874973</v>
+        <v>0.2829700219117071</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>364238</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>327725</v>
+        <v>328159</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>399503</v>
+        <v>397761</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1341085505615388</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1206648882521246</v>
+        <v>0.1208247537757772</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.147092832805384</v>
+        <v>0.1464511922468586</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>419</v>
@@ -6809,19 +6809,19 @@
         <v>456720</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>415724</v>
+        <v>413658</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>496336</v>
+        <v>496635</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1487617853609761</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1354084288319331</v>
+        <v>0.1347357226022392</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1616652765276524</v>
+        <v>0.1617627416991283</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>767</v>
@@ -6830,19 +6830,19 @@
         <v>820958</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>766776</v>
+        <v>768399</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>875865</v>
+        <v>877146</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1418836051338364</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1325195125472576</v>
+        <v>0.1328000029454559</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1513729503362835</v>
+        <v>0.1515943960204714</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>564559</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>519205</v>
+        <v>523488</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>605862</v>
+        <v>604766</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2078644974579107</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1911655758959916</v>
+        <v>0.1927427933950173</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2230719302585449</v>
+        <v>0.2226681552170668</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>696</v>
@@ -6880,19 +6880,19 @@
         <v>767988</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>719433</v>
+        <v>718935</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>820587</v>
+        <v>819382</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2501472166900955</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2343318272293666</v>
+        <v>0.2341695600173195</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2672795948795683</v>
+        <v>0.2668869954907893</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1235</v>
@@ -6901,19 +6901,19 @@
         <v>1332547</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1264220</v>
+        <v>1269613</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1399744</v>
+        <v>1398913</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2302998473308274</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2184910840094192</v>
+        <v>0.2194230676226255</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2419132476269054</v>
+        <v>0.2417696150542793</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>29854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20261</v>
+        <v>19789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43753</v>
+        <v>44159</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06187685920521538</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04199442428498432</v>
+        <v>0.0410144930495456</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09068336062322091</v>
+        <v>0.09152674879419806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -7268,19 +7268,19 @@
         <v>23186</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15846</v>
+        <v>15689</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31244</v>
+        <v>31344</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05274601394727509</v>
+        <v>0.05274601394727511</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03604735662518438</v>
+        <v>0.03569009434645563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07107609450396932</v>
+        <v>0.07130479819364324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -7289,19 +7289,19 @@
         <v>53040</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40456</v>
+        <v>40292</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67991</v>
+        <v>68721</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05752383236836232</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04387548970861898</v>
+        <v>0.04369819722010244</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07373875339291924</v>
+        <v>0.07453071474391305</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>123099</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103150</v>
+        <v>103911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143817</v>
+        <v>144149</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2551410686274393</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2137934550763171</v>
+        <v>0.2153706125806702</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2980815865555169</v>
+        <v>0.2987702294208289</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -7339,19 +7339,19 @@
         <v>96168</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81297</v>
+        <v>81948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>112344</v>
+        <v>111137</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2187715977426387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1849421628252988</v>
+        <v>0.1864245135800734</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2555709178166648</v>
+        <v>0.2528253162280703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -7360,19 +7360,19 @@
         <v>219267</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>193782</v>
+        <v>197146</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>245683</v>
+        <v>246790</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2378023361956299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2101632668913901</v>
+        <v>0.2138117679955962</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2664508272494013</v>
+        <v>0.2676516162042402</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>152311</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>130745</v>
+        <v>132758</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>173737</v>
+        <v>174589</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3156858704465512</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2709874761770686</v>
+        <v>0.2751603729108208</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.360094181525982</v>
+        <v>0.361861250779654</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>176</v>
@@ -7410,19 +7410,19 @@
         <v>119180</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>104048</v>
+        <v>103812</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>136425</v>
+        <v>135382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2711223115845846</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.236698500645238</v>
+        <v>0.2361627559510918</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3103529335127003</v>
+        <v>0.3079811942415955</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>327</v>
@@ -7431,19 +7431,19 @@
         <v>271491</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>244854</v>
+        <v>242262</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>301131</v>
+        <v>298284</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2944406995788126</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2655522899204399</v>
+        <v>0.2627408933293657</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3265866560357856</v>
+        <v>0.3234983130349081</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>74837</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>60424</v>
+        <v>60653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91515</v>
+        <v>90730</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1551092725330353</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1252366348908661</v>
+        <v>0.125712943083141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1896776893432835</v>
+        <v>0.1880503611645416</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>117</v>
@@ -7481,19 +7481,19 @@
         <v>77771</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65442</v>
+        <v>65498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91333</v>
+        <v>91649</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1769202770061374</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1488740922509025</v>
+        <v>0.1490012980267943</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2077735879518064</v>
+        <v>0.2084914920671331</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>203</v>
@@ -7502,19 +7502,19 @@
         <v>152607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132981</v>
+        <v>133919</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175669</v>
+        <v>175145</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1655074213492767</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1442219765627718</v>
+        <v>0.1452392142484634</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1905188379840515</v>
+        <v>0.189950980648443</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>102375</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84843</v>
+        <v>85317</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121735</v>
+        <v>120835</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2121869291877588</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1758492524688084</v>
+        <v>0.176832620015662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2523126341620888</v>
+        <v>0.2504471555423542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>170</v>
@@ -7552,19 +7552,19 @@
         <v>123276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>107040</v>
+        <v>107630</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>140914</v>
+        <v>141741</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.2804397997193642</v>
+        <v>0.2804397997193643</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2435048519104039</v>
+        <v>0.2448484857170986</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3205657544142231</v>
+        <v>0.322446071434646</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>285</v>
@@ -7573,19 +7573,19 @@
         <v>225651</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>201573</v>
+        <v>203031</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>251266</v>
+        <v>253980</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2447257105079185</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2186129654259186</v>
+        <v>0.2201942348451056</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2725061238071645</v>
+        <v>0.2754499155247228</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>27964</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18663</v>
+        <v>18354</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>41560</v>
+        <v>39983</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06559599430558835</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04377816755515074</v>
+        <v>0.04305491585450347</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0974896624607854</v>
+        <v>0.09379046754510216</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -7698,19 +7698,19 @@
         <v>29414</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21001</v>
+        <v>21686</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>39648</v>
+        <v>39460</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07879108080935315</v>
+        <v>0.07879108080935317</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05625607404680827</v>
+        <v>0.05808923156422705</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1062038806239144</v>
+        <v>0.1057025772139386</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>64</v>
@@ -7719,19 +7719,19 @@
         <v>57378</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>44442</v>
+        <v>44479</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>74559</v>
+        <v>73324</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07175634830926512</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05557885604721281</v>
+        <v>0.05562498646160498</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09324412838403595</v>
+        <v>0.09169891393503855</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>102981</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>84072</v>
+        <v>84727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122786</v>
+        <v>121904</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2415677311184537</v>
+        <v>0.2415677311184536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1972121744852986</v>
+        <v>0.1987478510698789</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2880269561526352</v>
+        <v>0.2859561667985924</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>120</v>
@@ -7769,19 +7769,19 @@
         <v>89383</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>75359</v>
+        <v>73959</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>105658</v>
+        <v>104813</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2394300930202958</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2018634880583326</v>
+        <v>0.1981132649543775</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2830270232885315</v>
+        <v>0.2807630091142615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>213</v>
@@ -7790,19 +7790,19 @@
         <v>192363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>168328</v>
+        <v>168736</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218045</v>
+        <v>217118</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.2405697378568981</v>
+        <v>0.2405697378568982</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2105105511361069</v>
+        <v>0.2110209186656667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2726865160293813</v>
+        <v>0.2715282444717804</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>109541</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>92227</v>
+        <v>92484</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>129666</v>
+        <v>129061</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2569575071380488</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2163418535999452</v>
+        <v>0.2169445819723438</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3041638734306851</v>
+        <v>0.3027455382650633</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>146</v>
@@ -7840,19 +7840,19 @@
         <v>101616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>87122</v>
+        <v>87626</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117625</v>
+        <v>117187</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2722000004150996</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2333752026522961</v>
+        <v>0.2347237723609319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3150816377179718</v>
+        <v>0.3139096184297818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>261</v>
@@ -7861,19 +7861,19 @@
         <v>211158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>190225</v>
+        <v>186562</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>238023</v>
+        <v>235456</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2640737283510363</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2378949095175389</v>
+        <v>0.2333140058222631</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.297672098150323</v>
+        <v>0.2944617926648018</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>83297</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>65737</v>
+        <v>65649</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>100388</v>
+        <v>99915</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1953943564352195</v>
+        <v>0.1953943564352194</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1542018673310283</v>
+        <v>0.1539964592610087</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2354854302740042</v>
+        <v>0.2343758488051406</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -7911,19 +7911,19 @@
         <v>67641</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55572</v>
+        <v>56836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81861</v>
+        <v>81040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1811902653245835</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1488609925751315</v>
+        <v>0.1522466644017881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.219280154746589</v>
+        <v>0.2170810101653348</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>188</v>
@@ -7932,19 +7932,19 @@
         <v>150938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>131237</v>
+        <v>129766</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>175202</v>
+        <v>174340</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1887629312060608</v>
+        <v>0.1887629312060609</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1641248439638341</v>
+        <v>0.1622860157874699</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2191073616956511</v>
+        <v>0.2180291735625158</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>102519</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>84672</v>
+        <v>86390</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121740</v>
+        <v>120041</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2404844110026897</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1986192752338208</v>
+        <v>0.2026498213468117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2855726932755346</v>
+        <v>0.2815863048774733</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>128</v>
@@ -7982,19 +7982,19 @@
         <v>85261</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>72881</v>
+        <v>72986</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>99599</v>
+        <v>100657</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2283885604306679</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1952271281623638</v>
+        <v>0.1955073509055087</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2667972772052156</v>
+        <v>0.2696290869896047</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>240</v>
@@ -8003,19 +8003,19 @@
         <v>187780</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>165262</v>
+        <v>163283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>211778</v>
+        <v>210100</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2348372542767394</v>
+        <v>0.2348372542767395</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.206677186653418</v>
+        <v>0.2042018208343245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2648491371261603</v>
+        <v>0.2627517081737299</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>29516</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20294</v>
+        <v>20712</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42365</v>
+        <v>42066</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07132252519203963</v>
+        <v>0.07132252519203966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04904028980246345</v>
+        <v>0.05005005847381011</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1023728748383633</v>
+        <v>0.101649544579596</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -8128,19 +8128,19 @@
         <v>13683</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8466</v>
+        <v>8677</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>20592</v>
+        <v>20619</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.07927446842987078</v>
+        <v>0.07927446842987076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04904978428106784</v>
+        <v>0.05026824321634078</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.119300073546586</v>
+        <v>0.1194525295827887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>51</v>
@@ -8149,19 +8149,19 @@
         <v>43199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>32459</v>
+        <v>32279</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57703</v>
+        <v>55048</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07366304272753225</v>
+        <v>0.07366304272753223</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05534829244260808</v>
+        <v>0.05504202222128342</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09839569283759605</v>
+        <v>0.0938671496375075</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>119599</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>101542</v>
+        <v>100827</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>143184</v>
+        <v>140801</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2890039862991552</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2453688181789482</v>
+        <v>0.2436418869641175</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3459955750413402</v>
+        <v>0.3402367434980028</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -8199,19 +8199,19 @@
         <v>34465</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26484</v>
+        <v>25682</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>43322</v>
+        <v>43282</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.19967274798361</v>
+        <v>0.1996727479836101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1534359912490195</v>
+        <v>0.1487863209786007</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2509843210300244</v>
+        <v>0.2507531500797175</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -8220,19 +8220,19 @@
         <v>154065</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>133201</v>
+        <v>133887</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>176616</v>
+        <v>176691</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2627108748556399</v>
+        <v>0.2627108748556398</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.227134049933404</v>
+        <v>0.2283035579775198</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3011644572684084</v>
+        <v>0.3012930687693593</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>106134</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88343</v>
+        <v>90284</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>124421</v>
+        <v>125144</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2564659826505039</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2134758316071035</v>
+        <v>0.2181656826012004</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3006541899220114</v>
+        <v>0.302403163047222</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>64</v>
@@ -8270,19 +8270,19 @@
         <v>40429</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>32087</v>
+        <v>31240</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50273</v>
+        <v>49734</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2342243878258614</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1858946474897634</v>
+        <v>0.1809847014784374</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2912564446702073</v>
+        <v>0.2881299839898765</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>180</v>
@@ -8291,19 +8291,19 @@
         <v>146564</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>127810</v>
+        <v>127057</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>166603</v>
+        <v>166334</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2499195522815422</v>
+        <v>0.2499195522815421</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2179415041742484</v>
+        <v>0.2166566510903259</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2840902284751946</v>
+        <v>0.2836322725172372</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>78095</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62840</v>
+        <v>63683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>94553</v>
+        <v>94212</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1887125482806531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1518484893691807</v>
+        <v>0.1538850706986692</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2284812774853084</v>
+        <v>0.2276564954089823</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -8341,19 +8341,19 @@
         <v>29421</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21895</v>
+        <v>22541</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36704</v>
+        <v>37541</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1704475262044055</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1268454920482591</v>
+        <v>0.1305918337656123</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2126433087124007</v>
+        <v>0.217489544627874</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>143</v>
@@ -8362,19 +8362,19 @@
         <v>107516</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92954</v>
+        <v>92505</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>126453</v>
+        <v>125647</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1833365536115467</v>
+        <v>0.1833365536115466</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1585044204855592</v>
+        <v>0.1577397372343065</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2156275700894856</v>
+        <v>0.2142522164819185</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>80488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>66503</v>
+        <v>65521</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>96833</v>
+        <v>97196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1944949575776481</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1606991748550587</v>
+        <v>0.1583272727801424</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2339902190634927</v>
+        <v>0.2348676798564984</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>83</v>
@@ -8412,19 +8412,19 @@
         <v>54610</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>44595</v>
+        <v>45613</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65607</v>
+        <v>67078</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.3163808695562524</v>
+        <v>0.3163808695562523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2583568267699841</v>
+        <v>0.2642559064645497</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3800906616324145</v>
+        <v>0.3886123353316298</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>174</v>
@@ -8433,19 +8433,19 @@
         <v>135099</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>115898</v>
+        <v>116156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>153950</v>
+        <v>155913</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.2303699765237391</v>
+        <v>0.230369976523739</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1976293732591668</v>
+        <v>0.1980694277145953</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2625156387514147</v>
+        <v>0.2658614456541947</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>77470</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>61965</v>
+        <v>60648</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98954</v>
+        <v>97752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08071930372892243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06456419201186148</v>
+        <v>0.06319170071796031</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1031048806913293</v>
+        <v>0.1018519090103198</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -8558,19 +8558,19 @@
         <v>81255</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>65935</v>
+        <v>65815</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>96271</v>
+        <v>97163</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1042626083361111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08460398178007442</v>
+        <v>0.0844507786150063</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1235294158301948</v>
+        <v>0.1246745407752838</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>176</v>
@@ -8579,19 +8579,19 @@
         <v>158725</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>136991</v>
+        <v>137244</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>184781</v>
+        <v>183982</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09126978322390029</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07877204122433729</v>
+        <v>0.07891788323569855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1062522743472243</v>
+        <v>0.1057928689604495</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>232165</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>204167</v>
+        <v>205824</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>261024</v>
+        <v>264471</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2419029353235718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2127314260415298</v>
+        <v>0.2144569519019142</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2719726522599299</v>
+        <v>0.2755643928914578</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>262</v>
@@ -8629,19 +8629,19 @@
         <v>186955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166907</v>
+        <v>166096</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>209221</v>
+        <v>209083</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2398909892298818</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2141656309832666</v>
+        <v>0.2131251778585553</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2684614965713984</v>
+        <v>0.2682841476843397</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>473</v>
@@ -8650,19 +8650,19 @@
         <v>419120</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>384732</v>
+        <v>388226</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>453715</v>
+        <v>460460</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.241001320348077</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2212274465528004</v>
+        <v>0.2232370698200708</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2608942513747309</v>
+        <v>0.2647725933628409</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>277556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>248132</v>
+        <v>248628</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>310415</v>
+        <v>308545</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2891978319420978</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2585396880693004</v>
+        <v>0.2590568338147554</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3234350319712931</v>
+        <v>0.3214866027834268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>330</v>
@@ -8700,19 +8700,19 @@
         <v>230597</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>208635</v>
+        <v>207802</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>252850</v>
+        <v>252133</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2958900281406583</v>
+        <v>0.2958900281406584</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2677096255095651</v>
+        <v>0.2666406474432051</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3244435122323953</v>
+        <v>0.3235230361345158</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>618</v>
@@ -8721,19 +8721,19 @@
         <v>508153</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>468971</v>
+        <v>471563</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>544768</v>
+        <v>543974</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2921968110551542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2696665095000462</v>
+        <v>0.2711572772873489</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3132513389566975</v>
+        <v>0.3127944854075907</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>163646</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>141812</v>
+        <v>141758</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>191322</v>
+        <v>190055</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1705105139669106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1477604009852971</v>
+        <v>0.1477039295569233</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1993468993984197</v>
+        <v>0.1980274571055971</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>160</v>
@@ -8771,19 +8771,19 @@
         <v>102147</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87361</v>
+        <v>88153</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>118479</v>
+        <v>119813</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1310701166404183</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1120967309301834</v>
+        <v>0.1131138362750063</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1520262201592615</v>
+        <v>0.1537372073626729</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>344</v>
@@ -8792,19 +8792,19 @@
         <v>265794</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238020</v>
+        <v>239798</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>295577</v>
+        <v>294292</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1528360578865233</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1368655444524072</v>
+        <v>0.1378879837646258</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1699619799906802</v>
+        <v>0.1692233696084158</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>208907</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>184270</v>
+        <v>185411</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>235547</v>
+        <v>239026</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2176694150384972</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1919992291464113</v>
+        <v>0.1931885563045359</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2454269901356276</v>
+        <v>0.2490519468055919</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>282</v>
@@ -8842,19 +8842,19 @@
         <v>178379</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>161593</v>
+        <v>158995</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>202495</v>
+        <v>199978</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2288862576529304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2073480814141311</v>
+        <v>0.204013568519453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2598304223045064</v>
+        <v>0.2566008785103773</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>520</v>
@@ -8863,19 +8863,19 @@
         <v>387286</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>357477</v>
+        <v>356822</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>423326</v>
+        <v>423841</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2226960274863452</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2055557271030798</v>
+        <v>0.2051791601263701</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2434198788399816</v>
+        <v>0.2437162764448415</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>50918</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>38828</v>
+        <v>37295</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>68944</v>
+        <v>66110</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1140843655835665</v>
+        <v>0.1140843655835666</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08699549282134793</v>
+        <v>0.08356129919815386</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1544712054921366</v>
+        <v>0.1481220632659938</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>76</v>
@@ -8988,19 +8988,19 @@
         <v>54579</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>43309</v>
+        <v>43235</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>67292</v>
+        <v>68783</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07356413590755058</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.058374631992957</v>
+        <v>0.05827422005329726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09070014056281477</v>
+        <v>0.09270987097376679</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>121</v>
@@ -9009,19 +9009,19 @@
         <v>105497</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>88718</v>
+        <v>87935</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>125408</v>
+        <v>126518</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.0887841234749603</v>
+        <v>0.08878412347496029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07466316665344923</v>
+        <v>0.07400385103970511</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.105540528497625</v>
+        <v>0.1064747681678282</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>120520</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>99791</v>
+        <v>101337</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>140976</v>
+        <v>143145</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2700299579232062</v>
+        <v>0.2700299579232063</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2235865386367148</v>
+        <v>0.2270489387174443</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3158617490330178</v>
+        <v>0.3207230638631444</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>205</v>
@@ -9059,19 +9059,19 @@
         <v>142455</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>123013</v>
+        <v>124910</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160034</v>
+        <v>162945</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.1920081264006892</v>
+        <v>0.1920081264006893</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1658031082771804</v>
+        <v>0.1683606086092255</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.215702085566815</v>
+        <v>0.2196252558658361</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>313</v>
@@ -9080,19 +9080,19 @@
         <v>262975</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>234936</v>
+        <v>237671</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>293564</v>
+        <v>293889</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2213142610216912</v>
+        <v>0.2213142610216913</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1977172887693837</v>
+        <v>0.2000184967590988</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2470569500018258</v>
+        <v>0.2473308551272673</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>122278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>104246</v>
+        <v>105067</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>144686</v>
+        <v>144831</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2739692640160464</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2335675914094513</v>
+        <v>0.2354072839204208</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.324175662851604</v>
+        <v>0.3244990185037666</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>331</v>
@@ -9130,19 +9130,19 @@
         <v>209346</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>189693</v>
+        <v>190159</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>231901</v>
+        <v>231472</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2821676055170963</v>
+        <v>0.2821676055170962</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2556788192317155</v>
+        <v>0.2563062008212058</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3125685282118638</v>
+        <v>0.3119899086641836</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>456</v>
@@ -9151,19 +9151,19 @@
         <v>331625</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>304910</v>
+        <v>301111</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>361430</v>
+        <v>359811</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2790881892177061</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.256605876711939</v>
+        <v>0.2534082207288761</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3041714355495692</v>
+        <v>0.3028096684546153</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>73914</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>57791</v>
+        <v>59148</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>92682</v>
+        <v>91749</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.1656079195602636</v>
+        <v>0.1656079195602637</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1294840305369027</v>
+        <v>0.132524340354114</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2076568370136533</v>
+        <v>0.2055677479594691</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>230</v>
@@ -9201,19 +9201,19 @@
         <v>133028</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>115617</v>
+        <v>117704</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>150241</v>
+        <v>149808</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1793025368496983</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1558351660177942</v>
+        <v>0.1586476798572135</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.202502276581623</v>
+        <v>0.2019191918000824</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>311</v>
@@ -9222,19 +9222,19 @@
         <v>206943</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>184911</v>
+        <v>184348</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>231504</v>
+        <v>230041</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.1741586394297633</v>
+        <v>0.1741586394297634</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.155617181291836</v>
+        <v>0.1551437685743011</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1948285135530826</v>
+        <v>0.1935972661465346</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>78690</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>62167</v>
+        <v>64393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>95771</v>
+        <v>95435</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1763084929169172</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.139287915876179</v>
+        <v>0.1442753999223731</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2145779587569538</v>
+        <v>0.2138249182813951</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>335</v>
@@ -9272,19 +9272,19 @@
         <v>202513</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>182271</v>
+        <v>184291</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>223922</v>
+        <v>224028</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2729575953249656</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2456743142445494</v>
+        <v>0.2483964921239509</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3018141430248391</v>
+        <v>0.3019572568834216</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>429</v>
@@ -9293,19 +9293,19 @@
         <v>281203</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>255418</v>
+        <v>255310</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>305747</v>
+        <v>308928</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2366547868558791</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2149539857422685</v>
+        <v>0.2148632187747707</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2573098788981231</v>
+        <v>0.2599871538359341</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>22706</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11795</v>
+        <v>11580</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>37022</v>
+        <v>37993</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.250725341914349</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1302505147053001</v>
+        <v>0.1278733111260371</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4088116918029194</v>
+        <v>0.419530960408935</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>63</v>
@@ -9418,19 +9418,19 @@
         <v>51665</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>39813</v>
+        <v>38784</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>66239</v>
+        <v>66816</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07497150934849561</v>
+        <v>0.0749715093484956</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.05777261540849298</v>
+        <v>0.05627973567474075</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09611986257386</v>
+        <v>0.09695665040642566</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>74</v>
@@ -9439,19 +9439,19 @@
         <v>74371</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>58098</v>
+        <v>58576</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>96903</v>
+        <v>99285</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09538496499399134</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0745144868680165</v>
+        <v>0.07512638655561121</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1242834532290926</v>
+        <v>0.1273387225096084</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>19171</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9885</v>
+        <v>10031</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31806</v>
+        <v>31502</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2116985373341642</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1091515684740565</v>
+        <v>0.1107693072029072</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3512130481652432</v>
+        <v>0.3478581503704614</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>211</v>
@@ -9489,19 +9489,19 @@
         <v>163102</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>140087</v>
+        <v>141529</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>185557</v>
+        <v>184336</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2366768911502953</v>
+        <v>0.2366768911502952</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2032792770362416</v>
+        <v>0.2053716013560408</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2692609200167033</v>
+        <v>0.2674890491517608</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>222</v>
@@ -9510,19 +9510,19 @@
         <v>182274</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>157341</v>
+        <v>157518</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>206641</v>
+        <v>209171</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2337757053822294</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2017984084298056</v>
+        <v>0.2020260334589835</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2650286107668774</v>
+        <v>0.2682730416197794</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>29023</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17378</v>
+        <v>16829</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>44016</v>
+        <v>43641</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3204799016949243</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1918919031045054</v>
+        <v>0.1858330256293859</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4860377959068375</v>
+        <v>0.481899517278159</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>278</v>
@@ -9560,19 +9560,19 @@
         <v>178270</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>157962</v>
+        <v>159349</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>200821</v>
+        <v>200104</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2586870179329195</v>
+        <v>0.2586870179329194</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2292187173829945</v>
+        <v>0.2312312590617708</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2914107966400854</v>
+        <v>0.2903698903987142</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>294</v>
@@ -9581,19 +9581,19 @@
         <v>207293</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>182139</v>
+        <v>182443</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>232045</v>
+        <v>231243</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.265864137620539</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2336027339070446</v>
+        <v>0.2339927885985895</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2976099546587516</v>
+        <v>0.2965820621166351</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>10232</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2920</v>
+        <v>3505</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>22563</v>
+        <v>23424</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1129853478062149</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.03223923548537852</v>
+        <v>0.03870821449850211</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2491470701319636</v>
+        <v>0.2586528368056605</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>214</v>
@@ -9631,19 +9631,19 @@
         <v>131083</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>115246</v>
+        <v>115235</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>149638</v>
+        <v>150685</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1902139202159108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1672333986152513</v>
+        <v>0.1672173063403128</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2171393856899844</v>
+        <v>0.2186589209859439</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>220</v>
@@ -9652,19 +9652,19 @@
         <v>141315</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>123087</v>
+        <v>121969</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>160657</v>
+        <v>161365</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1812439762070962</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1578660985282939</v>
+        <v>0.156432348776907</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2060515399252743</v>
+        <v>0.2069594911381611</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>9428</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>3157</v>
+        <v>3091</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>24420</v>
+        <v>20483</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1041108712503477</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.03485668707646597</v>
+        <v>0.03412889524151742</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2696597977088718</v>
+        <v>0.226176404566443</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>269</v>
@@ -9702,19 +9702,19 @@
         <v>165014</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>145757</v>
+        <v>145966</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>182534</v>
+        <v>185835</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2394506613523788</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2115076421404081</v>
+        <v>0.2118110974239115</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2648740398619629</v>
+        <v>0.2696649206757784</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>275</v>
@@ -9723,19 +9723,19 @@
         <v>174442</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>155061</v>
+        <v>153285</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>197611</v>
+        <v>195727</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2237312157961442</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1988745355646704</v>
+        <v>0.1965966556012787</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2534471193366952</v>
+        <v>0.2510305620352097</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>238427</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>205117</v>
+        <v>207006</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>275513</v>
+        <v>275642</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08457156736365559</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07275618637277918</v>
+        <v>0.07342626459449728</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09772629525728667</v>
+        <v>0.09777199143958169</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>337</v>
@@ -9848,19 +9848,19 @@
         <v>253783</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>228065</v>
+        <v>227247</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>285739</v>
+        <v>281526</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.07940912662018289</v>
+        <v>0.07940912662018287</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.07136195637811571</v>
+        <v>0.071106086154475</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.08940829283337098</v>
+        <v>0.08808982302049091</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>546</v>
@@ -9869,19 +9869,19 @@
         <v>492210</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>451401</v>
+        <v>453882</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>539491</v>
+        <v>538779</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.08182871516919316</v>
+        <v>0.08182871516919317</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0750443129569794</v>
+        <v>0.07545677345958184</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.08968904559441791</v>
+        <v>0.08957067290009788</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>717536</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>664807</v>
+        <v>671549</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>768450</v>
+        <v>767393</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2545143503816358</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2358110071189785</v>
+        <v>0.2382024914212977</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2725739868514261</v>
+        <v>0.2721991123588275</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>982</v>
@@ -9919,19 +9919,19 @@
         <v>712528</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>671445</v>
+        <v>666146</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>756377</v>
+        <v>754422</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2229511164651787</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.210096087699345</v>
+        <v>0.2084382094844914</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2366714548286128</v>
+        <v>0.2360599531539155</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1633</v>
@@ -9940,19 +9940,19 @@
         <v>1430064</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1364659</v>
+        <v>1365202</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1494480</v>
+        <v>1496103</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2377445142297057</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.226871098567428</v>
+        <v>0.2269613468604495</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2484535157534579</v>
+        <v>0.248723417969134</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>796843</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>747978</v>
+        <v>750034</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>847985</v>
+        <v>848160</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2826450925298599</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.265312450782244</v>
+        <v>0.2660416740661308</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.300785556331946</v>
+        <v>0.3008475069519849</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1325</v>
@@ -9990,19 +9990,19 @@
         <v>879439</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>839397</v>
+        <v>835979</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>928453</v>
+        <v>922431</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2751777913512188</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2626488004111552</v>
+        <v>0.2615792589952415</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2905143251835326</v>
+        <v>0.2886301622728065</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2136</v>
@@ -10011,19 +10011,19 @@
         <v>1676282</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1608952</v>
+        <v>1610272</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1743612</v>
+        <v>1739956</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2786776468113896</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2674841599459356</v>
+        <v>0.2677037347473624</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2898710270952063</v>
+        <v>0.2892632754135965</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>484022</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>445048</v>
+        <v>446649</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>527644</v>
+        <v>526887</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1716854046782302</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1578612353433842</v>
+        <v>0.1584291420239314</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1871584446778226</v>
+        <v>0.1868899594538093</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>874</v>
@@ -10061,19 +10061,19 @@
         <v>541091</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>505307</v>
+        <v>507417</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>578397</v>
+        <v>577355</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1693082407447921</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1581113693367633</v>
+        <v>0.1587714750697862</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1809812186967388</v>
+        <v>0.1806553163803696</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1409</v>
@@ -10082,19 +10082,19 @@
         <v>1025113</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>973542</v>
+        <v>974589</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1081792</v>
+        <v>1082041</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1704223956413378</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1618488818829049</v>
+        <v>0.1620229723323476</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1798451586266813</v>
+        <v>0.1798866471688794</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>582408</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>541670</v>
+        <v>538350</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>622398</v>
+        <v>627769</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.2065835850466185</v>
+        <v>0.2065835850466184</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1921338276719951</v>
+        <v>0.1909561665623905</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2207682748561912</v>
+        <v>0.2226734079234181</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1267</v>
@@ -10132,19 +10132,19 @@
         <v>809052</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>765766</v>
+        <v>769733</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>856106</v>
+        <v>855558</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2531537248186275</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2396094079435698</v>
+        <v>0.2408506300219881</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2678768794461511</v>
+        <v>0.2677053550766806</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1923</v>
@@ -10153,19 +10153,19 @@
         <v>1391460</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1329387</v>
+        <v>1336512</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1452623</v>
+        <v>1454791</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2313267281483737</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2210072394612107</v>
+        <v>0.2221917830088301</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2414949003003996</v>
+        <v>0.2418553220739443</v>
       </c>
     </row>
     <row r="45">
